--- a/data/readxl-example-data.xlsx
+++ b/data/readxl-example-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">foo</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data ends here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So now we can also have some nice notes here</t>
   </si>
 </sst>
 </file>
@@ -86,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,7 +165,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B14:D15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -199,10 +194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,20 +337,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
